--- a/QR_TestData.xlsx
+++ b/QR_TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="12915" windowHeight="5850"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12390" windowHeight="5115"/>
   </bookViews>
   <sheets>
     <sheet name="QR_TestData" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="263">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -809,6 +809,9 @@
   </si>
   <si>
     <t>Transfer_04</t>
+  </si>
+  <si>
+    <t>9000000003</t>
   </si>
 </sst>
 </file>
@@ -1229,7 +1232,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1239,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1286,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -1331,7 +1334,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
@@ -1345,7 +1348,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>

--- a/QR_TestData.xlsx
+++ b/QR_TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="12390" windowHeight="5115"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13290" windowHeight="4740"/>
   </bookViews>
   <sheets>
     <sheet name="QR_TestData" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="278">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -812,6 +812,51 @@
   </si>
   <si>
     <t>9000000003</t>
+  </si>
+  <si>
+    <t>CallFeature_01</t>
+  </si>
+  <si>
+    <t>8523816531</t>
+  </si>
+  <si>
+    <t>Xyz</t>
+  </si>
+  <si>
+    <t>Majestic, Bengaluru, Karnataka, India</t>
+  </si>
+  <si>
+    <t>Abc</t>
+  </si>
+  <si>
+    <t>8951198201</t>
+  </si>
+  <si>
+    <t>CallFeature_02</t>
+  </si>
+  <si>
+    <t>CallFeature_03</t>
+  </si>
+  <si>
+    <t>8523816532</t>
+  </si>
+  <si>
+    <t>8523816533</t>
+  </si>
+  <si>
+    <t>Mubi</t>
+  </si>
+  <si>
+    <t>Test call</t>
+  </si>
+  <si>
+    <t>8951198202</t>
+  </si>
+  <si>
+    <t>8951198203</t>
+  </si>
+  <si>
+    <t>Deeraj</t>
   </si>
 </sst>
 </file>
@@ -895,7 +940,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -908,7 +953,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1232,7 +1276,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1240,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S68"/>
+  <dimension ref="A1:S71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="G64" workbookViewId="0">
+      <selection activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1325,7 +1369,7 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
         <v>212</v>
       </c>
     </row>
@@ -1361,7 +1405,7 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>204</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1375,7 +1419,7 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>206</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1389,7 +1433,7 @@
       <c r="A9" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>207</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1403,7 +1447,7 @@
       <c r="A10" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>208</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -1413,124 +1457,124 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="22" customFormat="1">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:9" s="21" customFormat="1">
+      <c r="A11" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="22" t="s">
+      <c r="C11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="22" customFormat="1">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:9" s="21" customFormat="1">
+      <c r="A12" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="22" t="s">
+      <c r="C12" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="22" customFormat="1">
-      <c r="A13" s="22" t="s">
+      <c r="G12" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="21" customFormat="1">
+      <c r="A13" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="22" t="s">
+      <c r="C13" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="23" t="s">
+      <c r="G13" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="I13" s="22" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="22" customFormat="1">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:9" s="21" customFormat="1">
+      <c r="A14" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="22" t="s">
+      <c r="C14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="23" t="s">
+      <c r="G14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="22" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="22" customFormat="1">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:9" s="21" customFormat="1">
+      <c r="A15" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="22" t="s">
+      <c r="C15" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1538,7 +1582,7 @@
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1552,7 +1596,7 @@
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1566,7 +1610,7 @@
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1580,7 +1624,7 @@
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1594,13 +1638,13 @@
       <c r="A20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="26" t="s">
         <v>115</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>67</v>
       </c>
       <c r="E20" s="10" t="s">
@@ -1609,10 +1653,10 @@
       <c r="F20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="12" t="s">
         <v>11</v>
       </c>
       <c r="I20" s="10" t="s">
@@ -1626,7 +1670,7 @@
       <c r="A21" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="26" t="s">
         <v>82</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1635,16 +1679,16 @@
       <c r="D21" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="12" t="s">
         <v>11</v>
       </c>
       <c r="I21" s="10" t="s">
@@ -1658,28 +1702,28 @@
       <c r="A22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="26" t="s">
         <v>116</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="H22" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="14" t="s">
+      <c r="H22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="13" t="s">
         <v>51</v>
       </c>
       <c r="J22" s="9"/>
@@ -1690,263 +1734,263 @@
       <c r="A23" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="26" t="s">
         <v>117</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="H23" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="14" t="s">
+      <c r="H23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="13" t="s">
         <v>51</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:12" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="14" t="s">
+    <row r="24" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="26" t="s">
         <v>93</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="H24" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="14" t="s">
+      <c r="H24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="14" customFormat="1">
-      <c r="A25" s="14" t="s">
+    <row r="25" spans="1:12" s="13" customFormat="1">
+      <c r="A25" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="26" t="s">
         <v>94</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="H25" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="14" t="s">
+      <c r="H25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="32" customFormat="1">
-      <c r="A26" s="32" t="s">
+    <row r="26" spans="1:12" s="31" customFormat="1">
+      <c r="A26" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="32" t="s">
+      <c r="C26" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="G26" s="34" t="s">
+      <c r="G26" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="H26" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="32" t="s">
+      <c r="H26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="32" customFormat="1">
-      <c r="A27" s="32" t="s">
+    <row r="27" spans="1:12" s="31" customFormat="1">
+      <c r="A27" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="C27" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="32" t="s">
+      <c r="C27" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="E27" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="H27" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="32" t="s">
+      <c r="H27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="14" customFormat="1">
-      <c r="A28" s="14" t="s">
+    <row r="28" spans="1:12" s="13" customFormat="1">
+      <c r="A28" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="26" t="s">
         <v>96</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="G28" s="34" t="s">
+      <c r="G28" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="14" t="s">
+      <c r="H28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="14" customFormat="1">
-      <c r="A29" s="14" t="s">
+    <row r="29" spans="1:12" s="13" customFormat="1">
+      <c r="A29" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>97</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="14" t="s">
+      <c r="H29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="14" customFormat="1">
-      <c r="A30" s="14" t="s">
+    <row r="30" spans="1:12" s="13" customFormat="1">
+      <c r="A30" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>98</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" s="14" t="s">
+      <c r="H30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="17" customFormat="1">
-      <c r="A31" s="17" t="s">
+    <row r="31" spans="1:12" s="16" customFormat="1">
+      <c r="A31" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C31" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="17" t="s">
+      <c r="C31" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="H31" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="17" t="s">
+      <c r="H31" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="16" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1954,7 +1998,7 @@
       <c r="A32" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="27" t="s">
         <v>239</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1974,7 +2018,7 @@
       <c r="A33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="27" t="s">
         <v>204</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1997,7 +2041,7 @@
       <c r="A34" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="27" t="s">
         <v>209</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -2018,7 +2062,7 @@
       <c r="H34" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I34" s="28" t="s">
+      <c r="I34" s="27" t="s">
         <v>240</v>
       </c>
       <c r="J34" s="5" t="s">
@@ -2032,7 +2076,7 @@
       <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="27" t="s">
         <v>116</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -2042,1216 +2086,1321 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="22" customFormat="1">
-      <c r="A36" s="22" t="s">
+    <row r="36" spans="1:16" s="21" customFormat="1">
+      <c r="A36" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="C36" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="22" t="s">
+      <c r="C36" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="G36" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H36" s="28" t="s">
+      <c r="H36" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="I36" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="J36" s="22" t="s">
+      <c r="I36" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="21" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="22" customFormat="1">
-      <c r="A37" s="22" t="s">
+    <row r="37" spans="1:16" s="21" customFormat="1">
+      <c r="A37" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C37" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="22" t="s">
+      <c r="C37" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="22" t="s">
+      <c r="F37" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="28" t="s">
+      <c r="G37" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="H37" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I37" s="28" t="s">
+      <c r="H37" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="J37" s="28" t="s">
+      <c r="J37" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="K37" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="L37" s="22" t="s">
+      <c r="K37" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="M37" s="28" t="s">
+      <c r="M37" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="N37" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="O37" s="22" t="s">
+      <c r="N37" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="O37" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="P37" s="22" t="s">
+      <c r="P37" s="21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="22" customFormat="1">
-      <c r="A38" s="22" t="s">
+    <row r="38" spans="1:16" s="21" customFormat="1">
+      <c r="A38" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C38" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="22" t="s">
+      <c r="C38" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F38" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="G38" s="28" t="s">
+      <c r="G38" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="H38" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38" s="22" t="s">
+      <c r="H38" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="J38" s="22" t="s">
+      <c r="J38" s="21" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="22" customFormat="1">
-      <c r="A39" s="22" t="s">
+    <row r="39" spans="1:16" s="21" customFormat="1">
+      <c r="A39" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="C39" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="22" t="s">
+      <c r="C39" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="G39" s="28" t="s">
+      <c r="G39" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="28" t="s">
+      <c r="H39" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I39" s="22" t="s">
+      <c r="I39" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="J39" s="28" t="s">
+      <c r="J39" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="K39" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="L39" s="22" t="s">
+      <c r="K39" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L39" s="21" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="22" customFormat="1">
-      <c r="A40" s="22" t="s">
+    <row r="40" spans="1:16" s="21" customFormat="1">
+      <c r="A40" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="C40" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="22" t="s">
+      <c r="C40" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="G40" s="28" t="s">
+      <c r="G40" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="H40" s="28" t="s">
+      <c r="H40" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="I40" s="22" t="s">
+      <c r="I40" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="J40" s="28" t="s">
+      <c r="J40" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="K40" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="L40" s="22" t="s">
+      <c r="K40" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="M40" s="28" t="s">
+      <c r="M40" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="N40" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="O40" s="22" t="s">
+      <c r="N40" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="O40" s="21" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="29" customFormat="1">
-      <c r="A41" s="29" t="s">
+    <row r="41" spans="1:16" s="28" customFormat="1">
+      <c r="A41" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="29" t="s">
+      <c r="C41" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="E41" s="29" t="s">
+      <c r="E41" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="F41" s="29" t="s">
+      <c r="F41" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="G41" s="30" t="s">
+      <c r="G41" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="H41" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="I41" s="29" t="s">
+      <c r="H41" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="J41" s="29" t="s">
+      <c r="J41" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="K41" s="30" t="s">
+      <c r="K41" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="L41" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="M41" s="29" t="s">
+      <c r="L41" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" s="28" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="14" customFormat="1">
-      <c r="A42" s="14" t="s">
+    <row r="42" spans="1:16" s="13" customFormat="1">
+      <c r="A42" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="27" t="s">
         <v>124</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="F42" s="13" t="s">
         <v>59</v>
       </c>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:16" s="14" customFormat="1">
-      <c r="A43" s="14" t="s">
+    <row r="43" spans="1:16" s="13" customFormat="1">
+      <c r="A43" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="27" t="s">
         <v>125</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G43" s="28" t="s">
+      <c r="G43" s="27" t="s">
         <v>132</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I43" s="14" t="s">
+      <c r="I43" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="J43" s="14" t="s">
+      <c r="J43" s="13" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="14" customFormat="1">
-      <c r="A44" s="14" t="s">
+    <row r="44" spans="1:16" s="13" customFormat="1">
+      <c r="A44" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="27" t="s">
         <v>126</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="28" t="s">
+      <c r="G44" s="27" t="s">
         <v>133</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I44" s="14" t="s">
+      <c r="I44" s="13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="14" customFormat="1">
-      <c r="A45" s="14" t="s">
+    <row r="45" spans="1:16" s="13" customFormat="1">
+      <c r="A45" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="27" t="s">
         <v>127</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G45" s="28" t="s">
+      <c r="G45" s="27" t="s">
         <v>134</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="14" t="s">
+      <c r="I45" s="13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="14" customFormat="1">
-      <c r="A46" s="14" t="s">
+    <row r="46" spans="1:16" s="13" customFormat="1">
+      <c r="A46" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="27" t="s">
         <v>128</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F46" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G46" s="28" t="s">
+      <c r="G46" s="27" t="s">
         <v>135</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="14" t="s">
+      <c r="I46" s="13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="14" customFormat="1">
-      <c r="A47" s="14" t="s">
+    <row r="47" spans="1:16" s="13" customFormat="1">
+      <c r="A47" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="14" t="s">
         <v>129</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F47" s="14" t="s">
+      <c r="F47" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="G47" s="14" t="s">
         <v>136</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I47" s="14" t="s">
+      <c r="I47" s="13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="14" customFormat="1">
-      <c r="A48" s="14" t="s">
+    <row r="48" spans="1:16" s="13" customFormat="1">
+      <c r="A48" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="27" t="s">
         <v>130</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="F48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G48" s="15" t="s">
+      <c r="G48" s="14" t="s">
         <v>142</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I48" s="14" t="s">
+      <c r="I48" s="13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:19" s="22" customFormat="1">
-      <c r="A49" s="22" t="s">
+    <row r="49" spans="1:19" s="21" customFormat="1">
+      <c r="A49" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="C49" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="22" t="s">
+      <c r="C49" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="E49" s="22" t="s">
+      <c r="E49" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="22" t="s">
+      <c r="F49" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="G49" s="28" t="s">
+      <c r="G49" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="H49" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I49" s="22" t="s">
+      <c r="H49" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" s="21" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:19" s="22" customFormat="1">
-      <c r="A50" s="22" t="s">
+    <row r="50" spans="1:19" s="21" customFormat="1">
+      <c r="A50" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="22" t="s">
+      <c r="C50" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="E50" s="22" t="s">
+      <c r="E50" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F50" s="22" t="s">
+      <c r="F50" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G50" s="28" t="s">
+      <c r="G50" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="H50" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I50" s="22" t="s">
+      <c r="H50" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="J50" s="28" t="s">
+      <c r="J50" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="K50" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="L50" s="22" t="s">
+      <c r="K50" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L50" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="M50" s="28" t="s">
+      <c r="M50" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="N50" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="O50" s="22" t="s">
+      <c r="N50" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="O50" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="P50" s="22" t="s">
+      <c r="P50" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q50" s="22" t="s">
+      <c r="Q50" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="R50" s="22" t="s">
+      <c r="R50" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="S50" s="22" t="s">
+      <c r="S50" s="21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:19" s="22" customFormat="1">
-      <c r="A51" s="22" t="s">
+    <row r="51" spans="1:19" s="21" customFormat="1">
+      <c r="A51" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="C51" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="22" t="s">
+      <c r="C51" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="E51" s="22" t="s">
+      <c r="E51" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F51" s="22" t="s">
+      <c r="F51" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="28" t="s">
+      <c r="G51" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="H51" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I51" s="22" t="s">
+      <c r="H51" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="J51" s="28" t="s">
+      <c r="J51" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="K51" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="L51" s="22" t="s">
+      <c r="K51" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="M51" s="28" t="s">
+      <c r="M51" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="N51" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="O51" s="22" t="s">
+      <c r="N51" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="O51" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="P51" s="22" t="s">
+      <c r="P51" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="Q51" s="22" t="s">
+      <c r="Q51" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="R51" s="22" t="s">
+      <c r="R51" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:19" s="32" customFormat="1">
-      <c r="A52" s="32" t="s">
+    <row r="52" spans="1:19" s="31" customFormat="1">
+      <c r="A52" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="C52" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="32" t="s">
+      <c r="C52" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="E52" s="32" t="s">
+      <c r="E52" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="F52" s="32" t="s">
+      <c r="F52" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G52" s="34" t="s">
+      <c r="G52" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="H52" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52" s="32" t="s">
+      <c r="H52" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="J52" s="32" t="s">
+      <c r="J52" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="K52" s="34" t="s">
+      <c r="K52" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="L52" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="M52" s="32" t="s">
+      <c r="L52" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="M52" s="31" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="1:19" s="32" customFormat="1">
-      <c r="A53" s="32" t="s">
+    <row r="53" spans="1:19" s="31" customFormat="1">
+      <c r="A53" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="C53" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="32" t="s">
+      <c r="C53" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="E53" s="32" t="s">
+      <c r="E53" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="F53" s="32" t="s">
+      <c r="F53" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G53" s="34" t="s">
+      <c r="G53" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="H53" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I53" s="32" t="s">
+      <c r="H53" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="J53" s="32" t="s">
+      <c r="J53" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="K53" s="32" t="s">
+      <c r="K53" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="L53" s="32" t="s">
+      <c r="L53" s="31" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="54" spans="1:19" s="17" customFormat="1">
-      <c r="A54" s="17" t="s">
+    <row r="54" spans="1:19" s="16" customFormat="1">
+      <c r="A54" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C54" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="17" t="s">
+      <c r="C54" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="E54" s="17" t="s">
+      <c r="E54" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F54" s="17" t="s">
+      <c r="F54" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G54" s="18" t="s">
+      <c r="G54" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="H54" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I54" s="17" t="s">
+      <c r="H54" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="J54" s="17" t="s">
+      <c r="J54" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="K54" s="17" t="s">
+      <c r="K54" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:19" s="17" customFormat="1">
-      <c r="A55" s="17" t="s">
+    <row r="55" spans="1:19" s="16" customFormat="1">
+      <c r="A55" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C55" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="17" t="s">
+      <c r="C55" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="E55" s="17" t="s">
+      <c r="E55" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F55" s="17" t="s">
+      <c r="F55" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G55" s="18" t="s">
+      <c r="G55" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="H55" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I55" s="17" t="s">
+      <c r="H55" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="J55" s="17" t="s">
+      <c r="J55" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="K55" s="17" t="s">
+      <c r="K55" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:19" s="22" customFormat="1">
-      <c r="A56" s="22" t="s">
+    <row r="56" spans="1:19" s="21" customFormat="1">
+      <c r="A56" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="C56" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="22" t="s">
+      <c r="C56" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="E56" s="22" t="s">
+      <c r="E56" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F56" s="22" t="s">
+      <c r="F56" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="G56" s="28" t="s">
+      <c r="G56" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="H56" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I56" s="22" t="s">
+      <c r="H56" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="J56" s="22" t="s">
+      <c r="J56" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="K56" s="22" t="s">
+      <c r="K56" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="L56" s="28" t="s">
+      <c r="L56" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="M56" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="N56" s="22" t="s">
+      <c r="M56" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="N56" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="O56" s="22" t="s">
+      <c r="O56" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="P56" s="22" t="s">
+      <c r="P56" s="21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="1:19" s="22" customFormat="1">
-      <c r="A57" s="22" t="s">
+    <row r="57" spans="1:19" s="21" customFormat="1">
+      <c r="A57" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="C57" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="22" t="s">
+      <c r="C57" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="E57" s="22" t="s">
+      <c r="E57" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F57" s="22" t="s">
+      <c r="F57" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="G57" s="28" t="s">
+      <c r="G57" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="H57" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I57" s="22" t="s">
+      <c r="H57" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="J57" s="22" t="s">
+      <c r="J57" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="K57" s="22" t="s">
+      <c r="K57" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="L57" s="28" t="s">
+      <c r="L57" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="M57" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="N57" s="22" t="s">
+      <c r="M57" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="N57" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="O57" s="22" t="s">
+      <c r="O57" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="P57" s="22" t="s">
+      <c r="P57" s="21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:19" s="22" customFormat="1">
-      <c r="A58" s="22" t="s">
+    <row r="58" spans="1:19" s="21" customFormat="1">
+      <c r="A58" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="C58" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="22" t="s">
+      <c r="C58" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="E58" s="22" t="s">
+      <c r="E58" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="F58" s="22" t="s">
+      <c r="F58" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="G58" s="22" t="s">
+      <c r="G58" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:19" s="32" customFormat="1">
-      <c r="A59" s="32" t="s">
+    <row r="59" spans="1:19" s="31" customFormat="1">
+      <c r="A59" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="C59" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="32" t="s">
+      <c r="C59" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E59" s="32" t="s">
+      <c r="E59" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F59" s="32" t="s">
+      <c r="F59" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="G59" s="34" t="s">
+      <c r="G59" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="H59" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I59" s="32" t="s">
+      <c r="H59" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="J59" s="34"/>
-    </row>
-    <row r="60" spans="1:19" s="22" customFormat="1">
-      <c r="A60" s="32" t="s">
+      <c r="J59" s="33"/>
+    </row>
+    <row r="60" spans="1:19" s="21" customFormat="1">
+      <c r="A60" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="B60" s="28" t="s">
+      <c r="B60" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="C60" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="22" t="s">
+      <c r="C60" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="E60" s="22" t="s">
+      <c r="E60" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F60" s="22" t="s">
+      <c r="F60" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G60" s="28" t="s">
+      <c r="G60" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="H60" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I60" s="22" t="s">
+      <c r="H60" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" s="21" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:19" s="22" customFormat="1">
-      <c r="A61" s="32" t="s">
+    <row r="61" spans="1:19" s="21" customFormat="1">
+      <c r="A61" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="B61" s="28" t="s">
+      <c r="B61" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="C61" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="22" t="s">
+      <c r="C61" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="E61" s="22" t="s">
+      <c r="E61" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F61" s="22" t="s">
+      <c r="F61" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="G61" s="28" t="s">
+      <c r="G61" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="H61" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I61" s="22" t="s">
+      <c r="H61" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="J61" s="28" t="s">
+      <c r="J61" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="K61" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="L61" s="22" t="s">
+      <c r="K61" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="M61" s="28" t="s">
+      <c r="M61" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="N61" s="28" t="s">
+      <c r="N61" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="O61" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="P61" s="22" t="s">
+      <c r="O61" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="P61" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="Q61" s="22" t="s">
+      <c r="Q61" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="R61" s="28" t="s">
+      <c r="R61" s="27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:19" s="22" customFormat="1">
-      <c r="A62" s="22" t="s">
+    <row r="62" spans="1:19" s="21" customFormat="1">
+      <c r="A62" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="B62" s="28" t="s">
+      <c r="B62" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="C62" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="22" t="s">
+      <c r="C62" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="E62" s="22" t="s">
+      <c r="E62" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="F62" s="22" t="s">
+      <c r="F62" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="G62" s="28" t="s">
+      <c r="G62" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="H62" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I62" s="22" t="s">
+      <c r="H62" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="J62" s="28" t="s">
+      <c r="J62" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="K62" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="L62" s="22" t="s">
+      <c r="K62" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L62" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="M62" s="28" t="s">
+      <c r="M62" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="N62" s="28" t="s">
+      <c r="N62" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="O62" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="P62" s="22" t="s">
+      <c r="O62" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="P62" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="Q62" s="22" t="s">
+      <c r="Q62" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="R62" s="28" t="s">
+      <c r="R62" s="27" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="63" spans="1:19" s="22" customFormat="1">
-      <c r="A63" s="22" t="s">
+    <row r="63" spans="1:19" s="21" customFormat="1">
+      <c r="A63" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C63" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="22" t="s">
+      <c r="C63" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="E63" s="22" t="s">
+      <c r="E63" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="F63" s="22" t="s">
+      <c r="F63" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G63" s="28" t="s">
+      <c r="G63" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="H63" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I63" s="22" t="s">
+      <c r="H63" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="J63" s="22" t="s">
+      <c r="J63" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="K63" s="22" t="s">
+      <c r="K63" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L63" s="25" t="s">
+      <c r="L63" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="M63" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="N63" s="22" t="s">
+      <c r="M63" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="N63" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="O63" s="25" t="s">
+      <c r="O63" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="P63" s="23"/>
-    </row>
-    <row r="64" spans="1:19" s="22" customFormat="1">
-      <c r="A64" s="22" t="s">
+      <c r="P63" s="22"/>
+    </row>
+    <row r="64" spans="1:19" s="21" customFormat="1">
+      <c r="A64" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="B64" s="28" t="s">
+      <c r="B64" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="C64" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="22" t="s">
+      <c r="C64" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="E64" s="22" t="s">
+      <c r="E64" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="F64" s="22" t="s">
+      <c r="F64" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G64" s="28" t="s">
+      <c r="G64" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="H64" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I64" s="22" t="s">
+      <c r="H64" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="J64" s="22" t="s">
+      <c r="J64" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="K64" s="22" t="s">
+      <c r="K64" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L64" s="28" t="s">
+      <c r="L64" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="M64" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="N64" s="22" t="s">
+      <c r="M64" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="N64" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="O64" s="22" t="s">
+      <c r="O64" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="P64" s="28" t="s">
+      <c r="P64" s="27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="32" t="s">
+    <row r="65" spans="1:11">
+      <c r="A65" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="B65" s="34" t="s">
+      <c r="B65" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="C65" s="32" t="s">
+      <c r="C65" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="D65" s="32" t="s">
+      <c r="D65" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="E65" s="34" t="s">
+      <c r="E65" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="F65" s="34" t="s">
+      <c r="F65" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="G65" s="32" t="s">
+      <c r="G65" s="31" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="32" t="s">
+    <row r="66" spans="1:11">
+      <c r="A66" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="B66" s="34" t="s">
+      <c r="B66" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="C66" s="32" t="s">
+      <c r="C66" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="D66" s="32" t="s">
+      <c r="D66" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="E66" s="34" t="s">
+      <c r="E66" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="G66" s="32" t="s">
+      <c r="G66" s="31" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="32" t="s">
+    <row r="67" spans="1:11">
+      <c r="A67" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="B67" s="34" t="s">
+      <c r="B67" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="C67" s="32" t="s">
+      <c r="C67" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="D67" s="32" t="s">
+      <c r="D67" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="E67" s="34" t="s">
+      <c r="E67" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F67" s="34" t="s">
+      <c r="F67" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="G67" s="32" t="s">
+      <c r="G67" s="31" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="32" t="s">
+    <row r="68" spans="1:11">
+      <c r="A68" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="B68" s="34" t="s">
+      <c r="B68" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="C68" s="32" t="s">
+      <c r="C68" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="D68" s="32" t="s">
+      <c r="D68" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="E68" s="34" t="s">
+      <c r="E68" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F68" s="34" t="s">
+      <c r="F68" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="G68" s="32" t="s">
+      <c r="G68" s="31" t="s">
         <v>255</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B69" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="C69" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="D69" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="E69" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="G69" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="H69" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="I69" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="J69" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K69" s="31" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="B70" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="E70" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="G70" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="H70" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="I70" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="J70" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K70" s="31" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="B71" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="C71" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="D71" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="E71" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="G71" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="H71" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="I71" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="J71" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K71" s="31" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/QR_TestData.xlsx
+++ b/QR_TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13290" windowHeight="4740"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12990" windowHeight="4590"/>
   </bookViews>
   <sheets>
     <sheet name="QR_TestData" sheetId="1" r:id="rId1"/>
@@ -499,9 +499,6 @@
     <t>QR Rider</t>
   </si>
   <si>
-    <t>8971001281</t>
-  </si>
-  <si>
     <t>8971001282</t>
   </si>
   <si>
@@ -857,6 +854,9 @@
   </si>
   <si>
     <t>Deeraj</t>
+  </si>
+  <si>
+    <t>8123672551</t>
   </si>
 </sst>
 </file>
@@ -1286,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G64" workbookViewId="0">
-      <selection activeCell="K72" sqref="K72"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1333,7 +1333,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -1347,7 +1347,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -1361,7 +1361,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -1370,7 +1370,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1378,7 +1378,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
@@ -1392,7 +1392,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
@@ -1406,7 +1406,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>24</v>
@@ -1420,7 +1420,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
@@ -1434,7 +1434,7 @@
         <v>52</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>11</v>
@@ -1445,10 +1445,10 @@
     </row>
     <row r="10" spans="1:9" s="10" customFormat="1">
       <c r="A10" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>11</v>
@@ -1462,7 +1462,7 @@
         <v>32</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>11</v>
@@ -1482,7 +1482,7 @@
         <v>33</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>11</v>
@@ -1511,7 +1511,7 @@
         <v>35</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>11</v>
@@ -1529,10 +1529,10 @@
         <v>11</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="21" customFormat="1">
@@ -1540,7 +1540,7 @@
         <v>37</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>11</v>
@@ -1558,18 +1558,18 @@
         <v>11</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="21" customFormat="1">
       <c r="A15" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>11</v>
@@ -1854,7 +1854,7 @@
         <v>90</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>11</v>
@@ -1869,7 +1869,7 @@
         <v>112</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>11</v>
@@ -1895,10 +1895,10 @@
         <v>15</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>11</v>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="30" spans="1:12" s="13" customFormat="1">
       <c r="A30" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>98</v>
@@ -1967,10 +1967,10 @@
     </row>
     <row r="31" spans="1:12" s="16" customFormat="1">
       <c r="A31" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>11</v>
@@ -1985,7 +1985,7 @@
         <v>114</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>11</v>
@@ -1999,7 +1999,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>11</v>
@@ -2019,7 +2019,7 @@
         <v>19</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>11</v>
@@ -2042,7 +2042,7 @@
         <v>20</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>11</v>
@@ -2063,7 +2063,7 @@
         <v>46</v>
       </c>
       <c r="I34" s="27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>11</v>
@@ -2091,7 +2091,7 @@
         <v>44</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C36" s="22" t="s">
         <v>11</v>
@@ -2109,7 +2109,7 @@
         <v>45</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I36" s="22" t="s">
         <v>11</v>
@@ -2138,7 +2138,7 @@
         <v>70</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H37" s="22" t="s">
         <v>11</v>
@@ -2147,7 +2147,7 @@
         <v>149</v>
       </c>
       <c r="J37" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K37" s="22" t="s">
         <v>11</v>
@@ -2276,7 +2276,7 @@
         <v>149</v>
       </c>
       <c r="M40" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N40" s="22" t="s">
         <v>11</v>
@@ -2296,7 +2296,7 @@
         <v>11</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E41" s="28" t="s">
         <v>69</v>
@@ -2311,19 +2311,19 @@
         <v>11</v>
       </c>
       <c r="I41" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="J41" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="J41" s="28" t="s">
+      <c r="K41" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="L41" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" s="28" t="s">
         <v>215</v>
-      </c>
-      <c r="K41" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="L41" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="M41" s="28" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:16" s="13" customFormat="1">
@@ -2526,10 +2526,10 @@
     </row>
     <row r="49" spans="1:19" s="21" customFormat="1">
       <c r="A49" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C49" s="22" t="s">
         <v>11</v>
@@ -2544,7 +2544,7 @@
         <v>59</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H49" s="22" t="s">
         <v>11</v>
@@ -2632,7 +2632,7 @@
         <v>14</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H51" s="22" t="s">
         <v>11</v>
@@ -2673,7 +2673,7 @@
         <v>120</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C52" s="32" t="s">
         <v>11</v>
@@ -2729,7 +2729,7 @@
         <v>15</v>
       </c>
       <c r="G53" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H53" s="32" t="s">
         <v>11</v>
@@ -2738,21 +2738,21 @@
         <v>149</v>
       </c>
       <c r="J53" s="31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K53" s="31" t="s">
         <v>121</v>
       </c>
       <c r="L53" s="31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:19" s="16" customFormat="1">
       <c r="A54" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="17" t="s">
-        <v>158</v>
+      <c r="B54" s="33" t="s">
+        <v>172</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>11</v>
@@ -2767,13 +2767,13 @@
         <v>49</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H54" s="18" t="s">
         <v>11</v>
       </c>
       <c r="I54" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J54" s="16" t="s">
         <v>48</v>
@@ -2787,7 +2787,7 @@
         <v>66</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>11</v>
@@ -2802,13 +2802,13 @@
         <v>14</v>
       </c>
       <c r="G55" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" s="16" t="s">
         <v>161</v>
-      </c>
-      <c r="H55" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I55" s="16" t="s">
-        <v>162</v>
       </c>
       <c r="J55" s="16" t="s">
         <v>48</v>
@@ -2819,10 +2819,10 @@
     </row>
     <row r="56" spans="1:19" s="21" customFormat="1">
       <c r="A56" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>168</v>
+        <v>277</v>
       </c>
       <c r="C56" s="22" t="s">
         <v>11</v>
@@ -2834,45 +2834,45 @@
         <v>48</v>
       </c>
       <c r="F56" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="G56" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="G56" s="27" t="s">
-        <v>170</v>
-      </c>
       <c r="H56" s="22" t="s">
         <v>11</v>
       </c>
       <c r="I56" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J56" s="21" t="s">
         <v>48</v>
       </c>
       <c r="K56" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L56" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M56" s="22" t="s">
         <v>11</v>
       </c>
       <c r="N56" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O56" s="21" t="s">
         <v>48</v>
       </c>
       <c r="P56" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:19" s="21" customFormat="1">
       <c r="A57" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C57" s="22" t="s">
         <v>11</v>
@@ -2884,45 +2884,45 @@
         <v>48</v>
       </c>
       <c r="F57" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="G57" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="G57" s="27" t="s">
-        <v>170</v>
-      </c>
       <c r="H57" s="22" t="s">
         <v>11</v>
       </c>
       <c r="I57" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J57" s="21" t="s">
         <v>48</v>
       </c>
       <c r="K57" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L57" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M57" s="22" t="s">
         <v>11</v>
       </c>
       <c r="N57" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O57" s="21" t="s">
         <v>48</v>
       </c>
       <c r="P57" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:19" s="21" customFormat="1">
       <c r="A58" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" s="27" t="s">
         <v>172</v>
-      </c>
-      <c r="B58" s="27" t="s">
-        <v>173</v>
       </c>
       <c r="C58" s="22" t="s">
         <v>11</v>
@@ -2931,10 +2931,10 @@
         <v>157</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G58" s="21" t="s">
         <v>14</v>
@@ -2942,10 +2942,10 @@
     </row>
     <row r="59" spans="1:19" s="31" customFormat="1">
       <c r="A59" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C59" s="32" t="s">
         <v>11</v>
@@ -2957,10 +2957,10 @@
         <v>15</v>
       </c>
       <c r="F59" s="31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G59" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H59" s="12" t="s">
         <v>11</v>
@@ -2972,10 +2972,10 @@
     </row>
     <row r="60" spans="1:19" s="21" customFormat="1">
       <c r="A60" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C60" s="22" t="s">
         <v>11</v>
@@ -2990,21 +2990,21 @@
         <v>73</v>
       </c>
       <c r="G60" s="27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H60" s="22" t="s">
         <v>11</v>
       </c>
       <c r="I60" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:19" s="21" customFormat="1">
       <c r="A61" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C61" s="22" t="s">
         <v>11</v>
@@ -3019,7 +3019,7 @@
         <v>59</v>
       </c>
       <c r="G61" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H61" s="22" t="s">
         <v>11</v>
@@ -3028,7 +3028,7 @@
         <v>149</v>
       </c>
       <c r="J61" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K61" s="22" t="s">
         <v>11</v>
@@ -3040,7 +3040,7 @@
         <v>65</v>
       </c>
       <c r="N61" s="27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O61" s="22" t="s">
         <v>11</v>
@@ -3049,7 +3049,7 @@
         <v>150</v>
       </c>
       <c r="Q61" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R61" s="27" t="s">
         <v>64</v>
@@ -3057,10 +3057,10 @@
     </row>
     <row r="62" spans="1:19" s="21" customFormat="1">
       <c r="A62" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C62" s="22" t="s">
         <v>11</v>
@@ -3069,13 +3069,13 @@
         <v>157</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F62" s="21" t="s">
         <v>106</v>
       </c>
       <c r="G62" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H62" s="22" t="s">
         <v>11</v>
@@ -3084,7 +3084,7 @@
         <v>149</v>
       </c>
       <c r="J62" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K62" s="22" t="s">
         <v>11</v>
@@ -3096,7 +3096,7 @@
         <v>65</v>
       </c>
       <c r="N62" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O62" s="22" t="s">
         <v>11</v>
@@ -3105,105 +3105,105 @@
         <v>150</v>
       </c>
       <c r="Q62" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="R62" s="27" t="s">
         <v>231</v>
-      </c>
-      <c r="R62" s="27" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="63" spans="1:19" s="21" customFormat="1">
       <c r="A63" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C63" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F63" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="H63" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="H63" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I63" s="21" t="s">
-        <v>179</v>
-      </c>
       <c r="J63" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K63" s="21" t="s">
         <v>15</v>
       </c>
       <c r="L63" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="M63" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="N63" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="M63" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="N63" s="21" t="s">
-        <v>181</v>
-      </c>
       <c r="O63" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P63" s="22"/>
     </row>
     <row r="64" spans="1:19" s="21" customFormat="1">
       <c r="A64" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C64" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F64" s="21" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H64" s="22" t="s">
         <v>11</v>
       </c>
       <c r="I64" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J64" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K64" s="21" t="s">
         <v>15</v>
       </c>
       <c r="L64" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="M64" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="N64" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="O64" s="21" t="s">
         <v>183</v>
-      </c>
-      <c r="M64" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="N64" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="O64" s="21" t="s">
-        <v>184</v>
       </c>
       <c r="P64" s="27" t="s">
         <v>64</v>
@@ -3211,196 +3211,196 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="B65" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="C65" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="B65" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="C65" s="31" t="s">
-        <v>254</v>
-      </c>
       <c r="D65" s="31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E65" s="33" t="s">
         <v>61</v>
       </c>
       <c r="F65" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G65" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D66" s="31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E66" s="33" t="s">
         <v>61</v>
       </c>
       <c r="G66" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="B67" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="D67" s="31" t="s">
         <v>258</v>
-      </c>
-      <c r="B67" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="C67" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="D67" s="31" t="s">
-        <v>259</v>
       </c>
       <c r="E67" s="33" t="s">
         <v>64</v>
       </c>
       <c r="F67" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G67" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D68" s="31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E68" s="33" t="s">
         <v>39</v>
       </c>
       <c r="F68" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G68" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="B69" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="B69" s="33" t="s">
+      <c r="C69" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="D69" s="31" t="s">
         <v>264</v>
-      </c>
-      <c r="C69" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="D69" s="31" t="s">
-        <v>265</v>
       </c>
       <c r="E69" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F69" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="G69" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="H69" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="I69" s="31" t="s">
         <v>266</v>
-      </c>
-      <c r="G69" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="H69" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="I69" s="31" t="s">
-        <v>267</v>
       </c>
       <c r="J69" s="31" t="s">
         <v>14</v>
       </c>
       <c r="K69" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E70" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F70" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G70" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H70" s="31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I70" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J70" s="31" t="s">
         <v>14</v>
       </c>
       <c r="K70" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D71" s="31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E71" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G71" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="H71" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="I71" s="31" t="s">
         <v>276</v>
-      </c>
-      <c r="H71" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="I71" s="31" t="s">
-        <v>277</v>
       </c>
       <c r="J71" s="31" t="s">
         <v>14</v>
       </c>
       <c r="K71" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
